--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="160">
   <si>
     <t>Номер задания</t>
   </si>
@@ -71,13 +71,13 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-37330636</t>
-  </si>
-  <si>
-    <t>11211555650</t>
-  </si>
-  <si>
-    <t>20:24:59 25.04.2023</t>
+    <t>WB-GI-45005734</t>
+  </si>
+  <si>
+    <t>11154949972</t>
+  </si>
+  <si>
+    <t>16:45:50 24.04.2023</t>
   </si>
   <si>
     <t>-</t>
@@ -89,16 +89,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>красный</t>
+    <t>зеленый</t>
   </si>
   <si>
     <t>₽</t>
   </si>
   <si>
-    <t>138871211</t>
-  </si>
-  <si>
-    <t>00-00147126</t>
+    <t>138870993</t>
+  </si>
+  <si>
+    <t>00-00185259</t>
   </si>
   <si>
     <t>Склад</t>
@@ -107,148 +107,331 @@
     <t>Новое</t>
   </si>
   <si>
-    <t>15 ч 14 мин</t>
-  </si>
-  <si>
-    <t>11211285671</t>
-  </si>
-  <si>
-    <t>18:13:38 25.04.2023</t>
+    <t>48 ч 04 мин</t>
+  </si>
+  <si>
+    <t>11154949975</t>
+  </si>
+  <si>
+    <t>11155322006</t>
+  </si>
+  <si>
+    <t>19:58:13 24.04.2023</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>138871180</t>
+  </si>
+  <si>
+    <t>00-00190709</t>
+  </si>
+  <si>
+    <t>На сборке</t>
+  </si>
+  <si>
+    <t>44 ч 52 мин</t>
+  </si>
+  <si>
+    <t>11155322014</t>
+  </si>
+  <si>
+    <t>11155874832</t>
+  </si>
+  <si>
+    <t>06:06:36 25.04.2023</t>
   </si>
   <si>
     <t>Наволочка из тенселя 50 х 70</t>
   </si>
   <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>138871447</t>
+  </si>
+  <si>
+    <t>00-00193331</t>
+  </si>
+  <si>
+    <t>34 ч 43 мин</t>
+  </si>
+  <si>
+    <t>11182927640</t>
+  </si>
+  <si>
+    <t>14:07:12 25.04.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из бязи 1,5 спальное</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>149929992</t>
+  </si>
+  <si>
+    <t>00-00201663</t>
+  </si>
+  <si>
+    <t>26 ч 43 мин</t>
+  </si>
+  <si>
+    <t>11188516914</t>
+  </si>
+  <si>
+    <t>14:17:44 25.04.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из сатина 1,5 спальное на резинке 90х200х30</t>
+  </si>
+  <si>
+    <t>светло-розовый</t>
+  </si>
+  <si>
+    <t>157397875</t>
+  </si>
+  <si>
+    <t>00-00203025</t>
+  </si>
+  <si>
+    <t>26 ч 32 мин</t>
+  </si>
+  <si>
+    <t>11154246473</t>
+  </si>
+  <si>
+    <t>12:25:05 24.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 180х200х20</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>136504358</t>
+  </si>
+  <si>
+    <t>00-00196118</t>
+  </si>
+  <si>
+    <t>52 ч 25 мин</t>
+  </si>
+  <si>
+    <t>11155322005</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180x220</t>
+  </si>
+  <si>
+    <t>135531353</t>
+  </si>
+  <si>
+    <t>00-00190730</t>
+  </si>
+  <si>
+    <t>11150097369</t>
+  </si>
+  <si>
+    <t>11:29:04 24.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 240x260</t>
+  </si>
+  <si>
     <t>белый</t>
   </si>
   <si>
-    <t>138871637</t>
-  </si>
-  <si>
-    <t>00-00182255</t>
-  </si>
-  <si>
-    <t>17 ч 25 мин</t>
-  </si>
-  <si>
-    <t>11211554715</t>
-  </si>
-  <si>
-    <t>20:24:10 25.04.2023</t>
-  </si>
-  <si>
-    <t>Постельное белье из бязи 1,5 спальное</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>141291805</t>
-  </si>
-  <si>
-    <t>00-00186996</t>
-  </si>
-  <si>
-    <t>15 ч 15 мин</t>
-  </si>
-  <si>
-    <t>11211720666</t>
-  </si>
-  <si>
-    <t>23:15:15 25.04.2023</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 150x220</t>
-  </si>
-  <si>
-    <t>136504749</t>
-  </si>
-  <si>
-    <t>00-00146990</t>
-  </si>
-  <si>
-    <t>12 ч 24 мин</t>
-  </si>
-  <si>
-    <t>11211507818</t>
-  </si>
-  <si>
-    <t>19:53:54 25.04.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 200x200x40</t>
-  </si>
-  <si>
-    <t>темно-синий</t>
-  </si>
-  <si>
-    <t>157399681</t>
-  </si>
-  <si>
-    <t>00-00203442</t>
-  </si>
-  <si>
-    <t>15 ч 45 мин</t>
-  </si>
-  <si>
-    <t>11211303628</t>
-  </si>
-  <si>
-    <t>18:22:25 25.04.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 200x220x20</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>136503823</t>
-  </si>
-  <si>
-    <t>00-00196986</t>
-  </si>
-  <si>
-    <t>17 ч 17 мин</t>
-  </si>
-  <si>
-    <t>11211303627</t>
-  </si>
-  <si>
-    <t>сиреневый</t>
-  </si>
-  <si>
-    <t>136504461</t>
-  </si>
-  <si>
-    <t>00-00196914</t>
-  </si>
-  <si>
-    <t>11211592662</t>
-  </si>
-  <si>
-    <t>21:01:43 25.04.2023</t>
-  </si>
-  <si>
-    <t>Простыня непромокаемая 180x220</t>
-  </si>
-  <si>
-    <t>135533015</t>
-  </si>
-  <si>
-    <t>00-00197016</t>
-  </si>
-  <si>
-    <t>14 ч 37 мин</t>
-  </si>
-  <si>
-    <t>11211316360</t>
-  </si>
-  <si>
-    <t>18:29:11 25.04.2023</t>
-  </si>
-  <si>
-    <t>17 ч 10 мин</t>
+    <t>135486994</t>
+  </si>
+  <si>
+    <t>00-00147094</t>
+  </si>
+  <si>
+    <t>53 ч 21 мин</t>
+  </si>
+  <si>
+    <t>11156110766</t>
+  </si>
+  <si>
+    <t>07:54:33 25.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 180x200x40</t>
+  </si>
+  <si>
+    <t>148723505</t>
+  </si>
+  <si>
+    <t>00-00201131</t>
+  </si>
+  <si>
+    <t>32 ч 55 мин</t>
+  </si>
+  <si>
+    <t>11154949974</t>
+  </si>
+  <si>
+    <t>Простыня из сатина со швом 280x280</t>
+  </si>
+  <si>
+    <t>135531561</t>
+  </si>
+  <si>
+    <t>00-00191366</t>
+  </si>
+  <si>
+    <t>11149536466</t>
+  </si>
+  <si>
+    <t>10:05:20 24.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина 200x220</t>
+  </si>
+  <si>
+    <t>136503339</t>
+  </si>
+  <si>
+    <t>00-00097043</t>
+  </si>
+  <si>
+    <t>54 ч 45 мин</t>
+  </si>
+  <si>
+    <t>11156159867</t>
+  </si>
+  <si>
+    <t>08:19:22 25.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300x300</t>
+  </si>
+  <si>
+    <t>темно-коричневый</t>
+  </si>
+  <si>
+    <t>136505153</t>
+  </si>
+  <si>
+    <t>00-00189047</t>
+  </si>
+  <si>
+    <t>32 ч 31 мин</t>
+  </si>
+  <si>
+    <t>11156004804</t>
+  </si>
+  <si>
+    <t>07:09:43 25.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140x200x30</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>136503606</t>
+  </si>
+  <si>
+    <t>00-00142812</t>
+  </si>
+  <si>
+    <t>33 ч 40 мин</t>
+  </si>
+  <si>
+    <t>11149225207</t>
+  </si>
+  <si>
+    <t>08:05:45 24.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180x200x30</t>
+  </si>
+  <si>
+    <t>136504392</t>
+  </si>
+  <si>
+    <t>00-00152880</t>
+  </si>
+  <si>
+    <t>56 ч 44 мин</t>
+  </si>
+  <si>
+    <t>11156160608</t>
+  </si>
+  <si>
+    <t>08:19:42 25.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина со швами 300x300</t>
+  </si>
+  <si>
+    <t>136504621</t>
+  </si>
+  <si>
+    <t>00-00189071</t>
+  </si>
+  <si>
+    <t>32 ч 30 мин</t>
+  </si>
+  <si>
+    <t>11154265406</t>
+  </si>
+  <si>
+    <t>12:30:57 24.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х20</t>
+  </si>
+  <si>
+    <t>светло-зеленый</t>
+  </si>
+  <si>
+    <t>154176279</t>
+  </si>
+  <si>
+    <t>00-00202198</t>
+  </si>
+  <si>
+    <t>52 ч 19 мин</t>
+  </si>
+  <si>
+    <t>11156110768</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х20</t>
+  </si>
+  <si>
+    <t>154176185</t>
+  </si>
+  <si>
+    <t>00-00194290</t>
+  </si>
+  <si>
+    <t>11148441355</t>
+  </si>
+  <si>
+    <t>20:36:54 23.04.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 80х200х40</t>
+  </si>
+  <si>
+    <t>медь</t>
+  </si>
+  <si>
+    <t>154176086</t>
+  </si>
+  <si>
+    <t>00-00202877</t>
+  </si>
+  <si>
+    <t>68 ч 13 мин</t>
   </si>
   <si>
     <t>КИЗ</t>
@@ -257,31 +440,61 @@
     <t>Номер чека</t>
   </si>
   <si>
-    <t>0102900240575796215R)gH=gHP.&amp;cp</t>
-  </si>
-  <si>
-    <t>0102900076995171215WGLSv:.Dl%ii</t>
-  </si>
-  <si>
-    <t>0102900240575789215+icRUIdfUo)!</t>
-  </si>
-  <si>
-    <t>0102900240575802215Em&amp;Pmz(Z+Eq"</t>
-  </si>
-  <si>
-    <t>0102900240575772215i3SojIGQmBkN</t>
-  </si>
-  <si>
-    <t>0102900079606234215E/19PkYi3H&lt;m</t>
-  </si>
-  <si>
-    <t>0102900080889404215E)uTQGplCGj-</t>
-  </si>
-  <si>
-    <t>0102900079991279215D&amp;;d9ZcP8RYx</t>
-  </si>
-  <si>
-    <t>0102900079991279215lCVnZhKPuDqL</t>
+    <t>0102900098420118215JN8,VJYV9xo8</t>
+  </si>
+  <si>
+    <t>0102900098420118215+kEhgqqfY)sE</t>
+  </si>
+  <si>
+    <t>0102900203466956215ns5DIWQufX0?</t>
+  </si>
+  <si>
+    <t>0102900203466956215ecXQP&gt;Mt3wa8</t>
+  </si>
+  <si>
+    <t>01029002405756972151t_&gt;aeZ8TPVo</t>
+  </si>
+  <si>
+    <t>0102900240575741215kXq_TQ2P)bqA</t>
+  </si>
+  <si>
+    <t>0102900240575758215OFJl)X&gt;Ls'B6</t>
+  </si>
+  <si>
+    <t>0102900236620370215USA.X3hggeIF</t>
+  </si>
+  <si>
+    <t>0102900240575680215w_B'tK5lKTz=</t>
+  </si>
+  <si>
+    <t>0102900076825430215GJXkqh4i(Z"*</t>
+  </si>
+  <si>
+    <t>0102900234477877215&gt;9hOPcKH4wlU</t>
+  </si>
+  <si>
+    <t>0102900109735224215tJLK)9"20a2g</t>
+  </si>
+  <si>
+    <t>0102900240575635215K%.i;P4UhT%D</t>
+  </si>
+  <si>
+    <t>01029002359186902155R,t+nakYXeI</t>
+  </si>
+  <si>
+    <t>0102900240575703215at6'PnXDKIN=</t>
+  </si>
+  <si>
+    <t>0102900240575628215qgVjtf5VFamN</t>
+  </si>
+  <si>
+    <t>0102900240575734215y-ifn;odSV:z</t>
+  </si>
+  <si>
+    <t>0102900240575642215j(mozMImF(KD</t>
+  </si>
+  <si>
+    <t>01029002405757102154RG&lt;iT;Ihftv</t>
   </si>
 </sst>
 </file>
@@ -628,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +852,8 @@
     <col min="1" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="9" width="10" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
@@ -708,40 +922,40 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>790378428</v>
+        <v>787224656</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="I2">
-        <v>1060</v>
+        <v>3592</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -759,45 +973,45 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>790393811</v>
+        <v>787721210</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I3">
-        <v>3114</v>
+        <v>2858</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -815,45 +1029,45 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>790393809</v>
+        <v>787915392</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>3114</v>
+        <v>1990</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -871,45 +1085,45 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>790405372</v>
+        <v>788050636</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>1824</v>
+        <v>2496</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
@@ -927,45 +1141,45 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>790536352</v>
+        <v>788139091</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>4257</v>
+        <v>3936</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
@@ -983,45 +1197,45 @@
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>790571551</v>
+        <v>788148151</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I7">
-        <v>3286</v>
+        <v>3651</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
@@ -1039,12 +1253,12 @@
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>790572335</v>
+        <v>788540714</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1100,40 +1314,40 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>790603783</v>
+        <v>788540717</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>1824</v>
+        <v>1066</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>28</v>
@@ -1151,45 +1365,45 @@
         <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>790655256</v>
+        <v>788540716</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>2266</v>
+        <v>3489</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
@@ -1207,11 +1421,627 @@
         <v>21</v>
       </c>
       <c r="R10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>788846726</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>1093.99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>788846734</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>1093.99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>788846725</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>2372.9899999999998</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>789198469</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>1028</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>789297225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15">
+        <v>2553</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>789377823</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>3666</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>789377821</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <v>4054</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>789418440</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>3305</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>789419047</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19">
+        <v>3929</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>789975578</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
         <v>50</v>
       </c>
+      <c r="I20">
+        <v>2963</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>789991695</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>6854</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R10">
+  <sortState ref="A2:R21">
     <sortCondition descending="1" ref="R1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1239,109 +2069,219 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>790572335</v>
+        <v>788540714</v>
       </c>
       <c r="B2">
-        <v>11211555650</v>
+        <v>11154949972</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>790378428</v>
+        <v>788540717</v>
       </c>
       <c r="B3">
-        <v>11211285671</v>
+        <v>11154949975</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>790571551</v>
+        <v>788846726</v>
       </c>
       <c r="B4">
-        <v>11211554715</v>
+        <v>11155322006</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>790655256</v>
+        <v>788846734</v>
       </c>
       <c r="B5">
-        <v>11211720666</v>
+        <v>11155322014</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>790536352</v>
+        <v>789198469</v>
       </c>
       <c r="B6">
-        <v>11211507818</v>
+        <v>11155874832</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>790393811</v>
+        <v>789975578</v>
       </c>
       <c r="B7">
-        <v>11211303628</v>
+        <v>11182927640</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>790393809</v>
+        <v>789991695</v>
       </c>
       <c r="B8">
-        <v>11211303627</v>
+        <v>11188516914</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>790603783</v>
+        <v>788139091</v>
       </c>
       <c r="B9">
-        <v>11211592662</v>
+        <v>11154246473</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>790405372</v>
+        <v>788846725</v>
       </c>
       <c r="B10">
-        <v>11211316360</v>
+        <v>11155322005</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>788050636</v>
+      </c>
+      <c r="B11">
+        <v>11150097369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>789377823</v>
+      </c>
+      <c r="B12">
+        <v>11156110766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>788540716</v>
+      </c>
+      <c r="B13">
+        <v>11154949974</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>787915392</v>
+      </c>
+      <c r="B14">
+        <v>11149536466</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>789418440</v>
+      </c>
+      <c r="B15">
+        <v>11156159867</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>789297225</v>
+      </c>
+      <c r="B16">
+        <v>11156004804</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>787721210</v>
+      </c>
+      <c r="B17">
+        <v>11149225207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>789419047</v>
+      </c>
+      <c r="B18">
+        <v>11156160608</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>788148151</v>
+      </c>
+      <c r="B19">
+        <v>11154265406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>789377821</v>
+      </c>
+      <c r="B20">
+        <v>11156110768</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>Номер задания</t>
   </si>
@@ -73,166 +73,169 @@
     <t>-</t>
   </si>
   <si>
-    <t>15:53:37 01.05.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп микрофибры 200x220</t>
+    <t>10:12:04 11.05.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>148720060</t>
+  </si>
+  <si>
+    <t>00-00199420</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ч 00 мин</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300x300</t>
+  </si>
+  <si>
+    <t>148723578</t>
+  </si>
+  <si>
+    <t>00-00199466</t>
+  </si>
+  <si>
+    <t>07:39:34 11.05.2023</t>
+  </si>
+  <si>
     <t>белый</t>
   </si>
   <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>135531258</t>
-  </si>
-  <si>
-    <t>00-00185055</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 ч 24 мин</t>
-  </si>
-  <si>
-    <t>15:34:46 01.05.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150x200</t>
-  </si>
-  <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>138888834</t>
-  </si>
-  <si>
-    <t>00-00185960</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 ч 43 мин</t>
-  </si>
-  <si>
-    <t>11:32:48 01.05.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70</t>
-  </si>
-  <si>
-    <t>138871637</t>
-  </si>
-  <si>
-    <t>00-00182255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 ч 45 мин</t>
-  </si>
-  <si>
-    <t>08:06:20 01.05.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп сатина 300x300</t>
-  </si>
-  <si>
-    <t>138899568</t>
-  </si>
-  <si>
-    <t>00-00197938</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 ч 11 мин</t>
-  </si>
-  <si>
-    <t>12:22:17 30.04.2023</t>
-  </si>
-  <si>
-    <t>Наволочка искуственный мех 40 х 40</t>
-  </si>
-  <si>
-    <t>157398476</t>
-  </si>
-  <si>
-    <t>00-00170514</t>
-  </si>
-  <si>
-    <t>27 ч 55 мин</t>
-  </si>
-  <si>
-    <t>00:06:53 30.04.2023</t>
-  </si>
-  <si>
-    <t>Простыня круглая из страйп сатина на резинке 200x200x30</t>
-  </si>
-  <si>
-    <t>136502984</t>
-  </si>
-  <si>
-    <t>00-00188257</t>
-  </si>
-  <si>
-    <t>40 ч 11 мин</t>
-  </si>
-  <si>
-    <t>23:42:53 29.04.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп сатина 150x200</t>
-  </si>
-  <si>
-    <t>138889298</t>
-  </si>
-  <si>
-    <t>00-00197861</t>
-  </si>
-  <si>
-    <t>40 ч 35 мин</t>
-  </si>
-  <si>
-    <t>15:51:38 29.04.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 200x220</t>
-  </si>
-  <si>
-    <t>138889314</t>
-  </si>
-  <si>
-    <t>00-00196365</t>
-  </si>
-  <si>
-    <t>48 ч 26 мин</t>
-  </si>
-  <si>
-    <t>12:59:42 29.04.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 150x200</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>138889427</t>
-  </si>
-  <si>
-    <t>00-00191591</t>
-  </si>
-  <si>
-    <t>51 ч 18 мин</t>
-  </si>
-  <si>
-    <t>16:47:13 28.04.2023</t>
-  </si>
-  <si>
-    <t>71 ч 30 мин</t>
+    <t>138871143</t>
+  </si>
+  <si>
+    <t>00-00113965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 ч 33 мин</t>
+  </si>
+  <si>
+    <t>20:16:47 10.05.2023</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х30</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>136503478</t>
+  </si>
+  <si>
+    <t>00-00189262</t>
+  </si>
+  <si>
+    <t>13 ч 56 мин</t>
+  </si>
+  <si>
+    <t>17:58:35 10.05.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина 280x280</t>
+  </si>
+  <si>
+    <t>138899589</t>
+  </si>
+  <si>
+    <t>00-00197777</t>
+  </si>
+  <si>
+    <t>16 ч 14 мин</t>
+  </si>
+  <si>
+    <t>17 ч 21 мин</t>
+  </si>
+  <si>
+    <t>00-00184903</t>
+  </si>
+  <si>
+    <t>135677241</t>
+  </si>
+  <si>
+    <t>Покрывало 1,5 спальное из гобелена</t>
+  </si>
+  <si>
+    <t>13:51:42 10.05.2023</t>
+  </si>
+  <si>
+    <t>11506719281</t>
+  </si>
+  <si>
+    <t>WB-GI-37330636</t>
+  </si>
+  <si>
+    <t>21 ч 25 мин</t>
+  </si>
+  <si>
+    <t>00-00164915</t>
+  </si>
+  <si>
+    <t>138871778</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>Наволочка из жаккарда 70 х 70</t>
+  </si>
+  <si>
+    <t>09:47:41 10.05.2023</t>
+  </si>
+  <si>
+    <t>11500785559</t>
+  </si>
+  <si>
+    <t>18 ч 55 мин</t>
+  </si>
+  <si>
+    <t>00-00148992</t>
+  </si>
+  <si>
+    <t>135932336</t>
+  </si>
+  <si>
+    <t>Матрас ватный с бортом 90x200</t>
+  </si>
+  <si>
+    <t>12:17:30 10.05.2023</t>
+  </si>
+  <si>
+    <t>11506520255</t>
+  </si>
+  <si>
+    <t>19 ч 05 мин</t>
+  </si>
+  <si>
+    <t>00-00148981</t>
+  </si>
+  <si>
+    <t>135932316</t>
+  </si>
+  <si>
+    <t>Матрас ватный с бортом 90x190</t>
+  </si>
+  <si>
+    <t>12:07:24 10.05.2023</t>
+  </si>
+  <si>
+    <t>11506498259</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
@@ -659,28 +662,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>794793062</v>
+        <v>813267220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I2">
-        <v>2924</v>
+        <v>1169</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -689,7 +695,7 @@
         <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -707,42 +713,42 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>794793060</v>
+        <v>813496804</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
       <c r="I3">
-        <v>2924</v>
+        <v>1752</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -760,42 +766,42 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>795944924</v>
+        <v>813513203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
       <c r="I4">
-        <v>3198</v>
+        <v>1810</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -813,42 +819,42 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>796200019</v>
+        <v>813667049</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
       <c r="I5">
-        <v>2927</v>
+        <v>1624</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
@@ -866,42 +872,42 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>796807976</v>
+        <v>813771381</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>2924</v>
+        <v>3285</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -919,42 +925,42 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>796824892</v>
+        <v>814002234</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I7">
-        <v>3268</v>
+        <v>3213</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
@@ -972,42 +978,42 @@
         <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>797349714</v>
+        <v>814445388</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I8">
-        <v>1017</v>
+        <v>894</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -1025,24 +1031,24 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>798519443</v>
+        <v>814722380</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1051,16 +1057,16 @@
         <v>22</v>
       </c>
       <c r="I9">
-        <v>3392</v>
+        <v>909</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
@@ -1078,24 +1084,24 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>798790244</v>
+        <v>814722379</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1104,16 +1110,16 @@
         <v>22</v>
       </c>
       <c r="I10">
-        <v>1060</v>
+        <v>909</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
@@ -1131,42 +1137,42 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>799179105</v>
+        <v>814722378</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>2661</v>
+        <v>3266</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -1184,223 +1190,11 @@
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>799209743</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12">
-        <v>1114</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>799209741</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>1114</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>799209739</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14">
-        <v>1114</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>799209737</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15">
-        <v>1114</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R15">
+  <sortState ref="A2:R11">
     <sortCondition descending="1" ref="R1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
   <si>
     <t>Номер задания</t>
   </si>
@@ -73,160 +73,124 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-49665492</t>
-  </si>
-  <si>
-    <t>12604922310</t>
-  </si>
-  <si>
-    <t>08:29:33 15.06.2023</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>13:56:43 18.06.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>138871143</t>
+  </si>
+  <si>
+    <t>00-00113965</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 ч 01 мин</t>
+  </si>
+  <si>
+    <t>138871777</t>
+  </si>
+  <si>
+    <t>00-00126109</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп сатина 70 х 70</t>
+  </si>
+  <si>
+    <t>138871414</t>
+  </si>
+  <si>
+    <t>00-00197859</t>
+  </si>
+  <si>
+    <t>13:49:31 18.06.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина 300x300</t>
+  </si>
+  <si>
+    <t>136503796</t>
+  </si>
+  <si>
+    <t>00-00182850</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 ч 08 мин</t>
+  </si>
+  <si>
+    <t>23:05:11 17.06.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>138871927</t>
+  </si>
+  <si>
+    <t>00-00183507</t>
+  </si>
+  <si>
+    <t>22 ч 53 мин</t>
+  </si>
+  <si>
+    <t>17:40:08 16.06.2023</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280x280</t>
+  </si>
+  <si>
+    <t>135531741</t>
+  </si>
+  <si>
+    <t>00-00191394</t>
+  </si>
+  <si>
+    <t>52 ч 18 мин</t>
+  </si>
+  <si>
+    <t>16:44:36 16.06.2023</t>
+  </si>
+  <si>
+    <t>53 ч 13 мин</t>
+  </si>
+  <si>
+    <t>15:25:13 16.06.2023</t>
+  </si>
+  <si>
     <t>Гобеленовая наволочка 40х60</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>светло-бежевый</t>
-  </si>
-  <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>157398580</t>
-  </si>
-  <si>
-    <t>00-00190956</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t>22 ч 00 мин</t>
-  </si>
-  <si>
-    <t>12597284190</t>
-  </si>
-  <si>
-    <t>17:34:30 14.06.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 50 х 70</t>
-  </si>
-  <si>
     <t>зеленый</t>
   </si>
   <si>
-    <t>138870993</t>
-  </si>
-  <si>
-    <t>00-00185259</t>
-  </si>
-  <si>
-    <t>36 ч 55 мин</t>
-  </si>
-  <si>
-    <t>12606970779</t>
-  </si>
-  <si>
-    <t>20:49:02 15.06.2023</t>
-  </si>
-  <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>138871093</t>
-  </si>
-  <si>
-    <t>00-00160944</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 ч 40 мин</t>
-  </si>
-  <si>
-    <t>12605029427</t>
-  </si>
-  <si>
-    <t>09:14:32 15.06.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 40 х 60</t>
-  </si>
-  <si>
-    <t>138871965</t>
-  </si>
-  <si>
-    <t>00-00188282</t>
-  </si>
-  <si>
-    <t>21 ч 15 мин</t>
-  </si>
-  <si>
-    <t>12606970777</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 175x215</t>
-  </si>
-  <si>
-    <t>синий</t>
-  </si>
-  <si>
-    <t>138889349</t>
-  </si>
-  <si>
-    <t>00-00188421</t>
-  </si>
-  <si>
-    <t>12597284188</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 240x260</t>
-  </si>
-  <si>
-    <t>135531361</t>
-  </si>
-  <si>
-    <t>00-00191363</t>
-  </si>
-  <si>
-    <t>12606970778</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 120x200x30</t>
-  </si>
-  <si>
-    <t>136503361</t>
-  </si>
-  <si>
-    <t>00-00174522</t>
-  </si>
-  <si>
-    <t>12550717384</t>
-  </si>
-  <si>
-    <t>18:27:52 13.06.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 160x200x40</t>
-  </si>
-  <si>
-    <t>сиреневый</t>
-  </si>
-  <si>
-    <t>148723413</t>
-  </si>
-  <si>
-    <t>00-00199130</t>
-  </si>
-  <si>
-    <t>60 ч 02 мин</t>
+    <t>157398508</t>
+  </si>
+  <si>
+    <t>00-00191277</t>
+  </si>
+  <si>
+    <t>54 ч 33 мин</t>
   </si>
 </sst>
 </file>
@@ -573,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
@@ -657,478 +621,566 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>873772326</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+        <v>879168379</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>916</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2">
-        <v>2728</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>875671611</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+        <v>879168377</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>916</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>1016</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>875671609</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>879298033</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>3114</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>2476</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>876665304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>879387222</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5">
+        <v>3076</v>
+      </c>
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>905</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>876752897</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>881577789</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>1010</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>861</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>878104063</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>881577787</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>1010</v>
+      </c>
+      <c r="J7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>1016</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>878104061</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>882412800</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>3232</v>
+      </c>
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8">
-        <v>3647</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>878104062</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>882426484</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>862</v>
+      </c>
+      <c r="J9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>2433</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
-      </c>
       <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
         <v>29</v>
       </c>
-      <c r="N9" t="s">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>882426482</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>857</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>882426483</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="P9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" t="s">
-        <v>44</v>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>1064</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:S9">
+  <sortState ref="A2:S11">
     <sortCondition descending="1" ref="S1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
   <si>
     <t>Номер задания</t>
   </si>
@@ -73,124 +73,244 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
+    <t>WB-GI-51655951</t>
+  </si>
+  <si>
+    <t>13180940105</t>
+  </si>
+  <si>
+    <t>08:02:16 16.07.2023</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>13:56:43 18.06.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70</t>
+    <t>Наволочка из тенселя 50 х 70</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>138871580</t>
+  </si>
+  <si>
+    <t>00-00192882</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>46 ч 07 мин</t>
+  </si>
+  <si>
+    <t>13180940106</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>138871919</t>
+  </si>
+  <si>
+    <t>00-00188280</t>
+  </si>
+  <si>
+    <t>13180940107</t>
+  </si>
+  <si>
+    <t>13142342026</t>
+  </si>
+  <si>
+    <t>16:10:14 14.07.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150x200</t>
+  </si>
+  <si>
     <t>белый</t>
   </si>
   <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>138871143</t>
-  </si>
-  <si>
-    <t>00-00113965</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 ч 01 мин</t>
-  </si>
-  <si>
-    <t>138871777</t>
-  </si>
-  <si>
-    <t>00-00126109</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп сатина 70 х 70</t>
-  </si>
-  <si>
-    <t>138871414</t>
-  </si>
-  <si>
-    <t>00-00197859</t>
-  </si>
-  <si>
-    <t>13:49:31 18.06.2023</t>
+    <t>138889298</t>
+  </si>
+  <si>
+    <t>00-00197861</t>
+  </si>
+  <si>
+    <t>85 ч 59 мин</t>
+  </si>
+  <si>
+    <t>13142335088</t>
+  </si>
+  <si>
+    <t>16:06:11 14.07.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150x200</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>138889122</t>
+  </si>
+  <si>
+    <t>00-00185878</t>
+  </si>
+  <si>
+    <t>86 ч 03 мин</t>
+  </si>
+  <si>
+    <t>13142335087</t>
+  </si>
+  <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>141300856</t>
+  </si>
+  <si>
+    <t>00-00198442</t>
+  </si>
+  <si>
+    <t>13198524607</t>
+  </si>
+  <si>
+    <t>10:27:24 17.07.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145x215</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>138889848</t>
+  </si>
+  <si>
+    <t>00-00193278</t>
+  </si>
+  <si>
+    <t>19 ч 42 мин</t>
+  </si>
+  <si>
+    <t>13204137060</t>
+  </si>
+  <si>
+    <t>17:08:01 17.07.2023</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180x220</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t>135486841</t>
+  </si>
+  <si>
+    <t>00-00147037</t>
+  </si>
+  <si>
+    <t>13 ч 01 мин</t>
+  </si>
+  <si>
+    <t>13199317726</t>
+  </si>
+  <si>
+    <t>14:52:33 17.07.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 150x220</t>
+  </si>
+  <si>
+    <t>135531199</t>
+  </si>
+  <si>
+    <t>00-00191023</t>
+  </si>
+  <si>
+    <t>15 ч 17 мин</t>
+  </si>
+  <si>
+    <t>13180939327</t>
+  </si>
+  <si>
+    <t>08:01:48 16.07.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180x220</t>
+  </si>
+  <si>
+    <t>136504534</t>
+  </si>
+  <si>
+    <t>00-00142869</t>
+  </si>
+  <si>
+    <t>13141140553</t>
+  </si>
+  <si>
+    <t>08:30:42 14.07.2023</t>
   </si>
   <si>
     <t>Простыня из страйп сатина 300x300</t>
   </si>
   <si>
-    <t>136503796</t>
-  </si>
-  <si>
-    <t>00-00182850</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 ч 08 мин</t>
-  </si>
-  <si>
-    <t>23:05:11 17.06.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70</t>
-  </si>
-  <si>
-    <t>коричневый</t>
-  </si>
-  <si>
-    <t>138871927</t>
-  </si>
-  <si>
-    <t>00-00183507</t>
-  </si>
-  <si>
-    <t>22 ч 53 мин</t>
-  </si>
-  <si>
-    <t>17:40:08 16.06.2023</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 280x280</t>
-  </si>
-  <si>
-    <t>135531741</t>
-  </si>
-  <si>
-    <t>00-00191394</t>
-  </si>
-  <si>
-    <t>52 ч 18 мин</t>
-  </si>
-  <si>
-    <t>16:44:36 16.06.2023</t>
-  </si>
-  <si>
-    <t>53 ч 13 мин</t>
-  </si>
-  <si>
-    <t>15:25:13 16.06.2023</t>
-  </si>
-  <si>
-    <t>Гобеленовая наволочка 40х60</t>
-  </si>
-  <si>
-    <t>зеленый</t>
-  </si>
-  <si>
-    <t>157398508</t>
-  </si>
-  <si>
-    <t>00-00191277</t>
-  </si>
-  <si>
-    <t>54 ч 33 мин</t>
+    <t>138899568</t>
+  </si>
+  <si>
+    <t>00-00197938</t>
+  </si>
+  <si>
+    <t>93 ч 38 мин</t>
+  </si>
+  <si>
+    <t>13204237880</t>
+  </si>
+  <si>
+    <t>17:50:42 17.07.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160x200x30</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>136504027</t>
+  </si>
+  <si>
+    <t>00-00142826</t>
+  </si>
+  <si>
+    <t>12 ч 18 мин</t>
+  </si>
+  <si>
+    <t>13180590096</t>
+  </si>
+  <si>
+    <t>04:39:42 16.07.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина со швами 280x280</t>
+  </si>
+  <si>
+    <t>135531366</t>
+  </si>
+  <si>
+    <t>00-00191164</t>
+  </si>
+  <si>
+    <t>49 ч 29 мин</t>
   </si>
 </sst>
 </file>
@@ -537,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
@@ -621,566 +741,773 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>879168379</v>
+        <v>931177779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>916</v>
+        <v>2993</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>879168377</v>
+        <v>931969766</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>916</v>
+        <v>2604</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>879298033</v>
+        <v>931969765</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>3114</v>
+        <v>2604</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>879387222</v>
+        <v>931976193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>3076</v>
+        <v>2614</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>881577789</v>
+        <v>934219892</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6">
-        <v>1010</v>
+        <v>2608</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>881577787</v>
+        <v>934477959</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>1010</v>
+        <v>948</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>882412800</v>
+        <v>934477961</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>948</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>3232</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>882426484</v>
+        <v>934477962</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I9">
-        <v>862</v>
+        <v>948</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>882426482</v>
+        <v>934477201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>857</v>
+        <v>1601</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
         <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>882426483</v>
+        <v>936502558</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>3234</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>937030900</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>1468</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>937256319</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>1064</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>2156</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>937327713</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="P11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14">
+        <v>2234</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
         <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:S11">
+  <sortState ref="A2:S14">
     <sortCondition descending="1" ref="S1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Сборочные задания" sheetId="1" r:id="rId1"/>
+    <sheet name="КИЗ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="125">
   <si>
     <t>Номер задания</t>
   </si>
@@ -25,6 +26,9 @@
     <t>Стикер</t>
   </si>
   <si>
+    <t>Короб</t>
+  </si>
+  <si>
     <t>Дата создания</t>
   </si>
   <si>
@@ -73,244 +77,319 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-51655951</t>
-  </si>
-  <si>
-    <t>13180940105</t>
-  </si>
-  <si>
-    <t>08:02:16 16.07.2023</t>
+    <t>WB-GI-53910960</t>
+  </si>
+  <si>
+    <t>13478274146</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>20:46:14 01.08.2023</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>Матрас ватный с бортом 110x200</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>138727694</t>
+  </si>
+  <si>
+    <t>00-00148994</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 ч 28 мин</t>
+  </si>
+  <si>
+    <t>13477247947</t>
+  </si>
+  <si>
+    <t>14:36:10 01.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70</t>
+  </si>
+  <si>
+    <t>темно-синий</t>
+  </si>
+  <si>
+    <t>138871702</t>
+  </si>
+  <si>
+    <t>00-00195709</t>
+  </si>
+  <si>
+    <t>15 ч 38 мин</t>
+  </si>
+  <si>
+    <t>13477247944</t>
+  </si>
+  <si>
+    <t>13477247949</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 70 х 70</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>138871727</t>
+  </si>
+  <si>
+    <t>00-00195418</t>
+  </si>
+  <si>
+    <t>13477247942</t>
+  </si>
+  <si>
+    <t>13477895932</t>
+  </si>
+  <si>
+    <t>17:57:16 01.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>138870999</t>
+  </si>
+  <si>
+    <t>00-00179807</t>
+  </si>
+  <si>
+    <t>12 ч 17 мин</t>
+  </si>
+  <si>
+    <t>13477895930</t>
+  </si>
+  <si>
+    <t>13477895929</t>
+  </si>
+  <si>
+    <t>13477895931</t>
+  </si>
+  <si>
+    <t>13477998421</t>
+  </si>
+  <si>
+    <t>18:43:39 01.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>138871613</t>
+  </si>
+  <si>
+    <t>00-00147873</t>
+  </si>
+  <si>
+    <t>11 ч 30 мин</t>
+  </si>
+  <si>
+    <t>13477407017</t>
+  </si>
+  <si>
+    <t>15:24:16 01.08.2023</t>
+  </si>
+  <si>
     <t>Наволочка из тенселя 50 х 70</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>желтый</t>
-  </si>
-  <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>138871580</t>
-  </si>
-  <si>
-    <t>00-00192882</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t>46 ч 07 мин</t>
-  </si>
-  <si>
-    <t>13180940106</t>
-  </si>
-  <si>
-    <t>красный</t>
-  </si>
-  <si>
-    <t>138871919</t>
-  </si>
-  <si>
-    <t>00-00188280</t>
-  </si>
-  <si>
-    <t>13180940107</t>
-  </si>
-  <si>
-    <t>13142342026</t>
-  </si>
-  <si>
-    <t>16:10:14 14.07.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп сатина 150x200</t>
+    <t>фиолетовый</t>
+  </si>
+  <si>
+    <t>138871672</t>
+  </si>
+  <si>
+    <t>00-00187267</t>
+  </si>
+  <si>
+    <t>14 ч 50 мин</t>
+  </si>
+  <si>
+    <t>13477407020</t>
+  </si>
+  <si>
+    <t>13477247943</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240x260</t>
+  </si>
+  <si>
+    <t>138889024</t>
+  </si>
+  <si>
+    <t>00-00189827</t>
+  </si>
+  <si>
+    <t>13477620938</t>
+  </si>
+  <si>
+    <t>16:21:57 01.08.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145x215</t>
   </si>
   <si>
     <t>белый</t>
   </si>
   <si>
-    <t>138889298</t>
-  </si>
-  <si>
-    <t>00-00197861</t>
-  </si>
-  <si>
-    <t>85 ч 59 мин</t>
-  </si>
-  <si>
-    <t>13142335088</t>
-  </si>
-  <si>
-    <t>16:06:11 14.07.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150x200</t>
+    <t>138889173</t>
+  </si>
+  <si>
+    <t>00-00182257</t>
+  </si>
+  <si>
+    <t>13 ч 52 мин</t>
+  </si>
+  <si>
+    <t>13477407018</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220x240</t>
+  </si>
+  <si>
+    <t>138889747</t>
+  </si>
+  <si>
+    <t>00-00188237</t>
+  </si>
+  <si>
+    <t>13477247940</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 200х200х30</t>
+  </si>
+  <si>
+    <t>136504306</t>
+  </si>
+  <si>
+    <t>00-00195468</t>
+  </si>
+  <si>
+    <t>13477895933</t>
+  </si>
+  <si>
+    <t>Простыня из сатина со швом 280x280</t>
+  </si>
+  <si>
+    <t>135531414</t>
+  </si>
+  <si>
+    <t>00-00191387</t>
+  </si>
+  <si>
+    <t>13477168574</t>
+  </si>
+  <si>
+    <t>14:11:28 01.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200x220x30</t>
   </si>
   <si>
     <t>синий</t>
   </si>
   <si>
-    <t>138889122</t>
-  </si>
-  <si>
-    <t>00-00185878</t>
-  </si>
-  <si>
-    <t>86 ч 03 мин</t>
-  </si>
-  <si>
-    <t>13142335087</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>141300856</t>
-  </si>
-  <si>
-    <t>00-00198442</t>
-  </si>
-  <si>
-    <t>13198524607</t>
-  </si>
-  <si>
-    <t>10:27:24 17.07.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 145x215</t>
-  </si>
-  <si>
-    <t>розовый</t>
-  </si>
-  <si>
-    <t>138889848</t>
-  </si>
-  <si>
-    <t>00-00193278</t>
-  </si>
-  <si>
-    <t>19 ч 42 мин</t>
-  </si>
-  <si>
-    <t>13204137060</t>
-  </si>
-  <si>
-    <t>17:08:01 17.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 180x220</t>
-  </si>
-  <si>
-    <t>серый</t>
-  </si>
-  <si>
-    <t>135486841</t>
-  </si>
-  <si>
-    <t>00-00147037</t>
-  </si>
-  <si>
-    <t>13 ч 01 мин</t>
-  </si>
-  <si>
-    <t>13199317726</t>
-  </si>
-  <si>
-    <t>14:52:33 17.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 150x220</t>
-  </si>
-  <si>
-    <t>135531199</t>
-  </si>
-  <si>
-    <t>00-00191023</t>
-  </si>
-  <si>
-    <t>15 ч 17 мин</t>
-  </si>
-  <si>
-    <t>13180939327</t>
-  </si>
-  <si>
-    <t>08:01:48 16.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 180x220</t>
-  </si>
-  <si>
-    <t>136504534</t>
-  </si>
-  <si>
-    <t>00-00142869</t>
-  </si>
-  <si>
-    <t>13141140553</t>
-  </si>
-  <si>
-    <t>08:30:42 14.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп сатина 300x300</t>
-  </si>
-  <si>
-    <t>138899568</t>
-  </si>
-  <si>
-    <t>00-00197938</t>
-  </si>
-  <si>
-    <t>93 ч 38 мин</t>
-  </si>
-  <si>
-    <t>13204237880</t>
-  </si>
-  <si>
-    <t>17:50:42 17.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 160x200x30</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>136504027</t>
-  </si>
-  <si>
-    <t>00-00142826</t>
-  </si>
-  <si>
-    <t>12 ч 18 мин</t>
-  </si>
-  <si>
-    <t>13180590096</t>
-  </si>
-  <si>
-    <t>04:39:42 16.07.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина со швами 280x280</t>
-  </si>
-  <si>
-    <t>135531366</t>
-  </si>
-  <si>
-    <t>00-00191164</t>
-  </si>
-  <si>
-    <t>49 ч 29 мин</t>
+    <t>136503292</t>
+  </si>
+  <si>
+    <t>00-00183196</t>
+  </si>
+  <si>
+    <t>16 ч 02 мин</t>
+  </si>
+  <si>
+    <t>13477407019</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х30</t>
+  </si>
+  <si>
+    <t>136504468</t>
+  </si>
+  <si>
+    <t>00-00188244</t>
+  </si>
+  <si>
+    <t>13476195385</t>
+  </si>
+  <si>
+    <t>08:24:56 01.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200x200x30</t>
+  </si>
+  <si>
+    <t>136502984</t>
+  </si>
+  <si>
+    <t>00-00188257</t>
+  </si>
+  <si>
+    <t>21 ч 49 мин</t>
+  </si>
+  <si>
+    <t>13477652359</t>
+  </si>
+  <si>
+    <t>16:31:23 01.08.2023</t>
+  </si>
+  <si>
+    <t>Шоколад 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>101463508</t>
+  </si>
+  <si>
+    <t>00-00190400</t>
+  </si>
+  <si>
+    <t>На сборке</t>
+  </si>
+  <si>
+    <t>13 ч 42 мин</t>
+  </si>
+  <si>
+    <t>КИЗ</t>
+  </si>
+  <si>
+    <t>Номер чека</t>
+  </si>
+  <si>
+    <t>Номер фискального накопителя</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Тип операции</t>
+  </si>
+  <si>
+    <t>0102900244791185215Qtri2fta&gt;RJ2</t>
   </si>
 </sst>
 </file>
@@ -657,30 +736,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="A2" sqref="A2:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,778 +818,1395 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>931177779</v>
+        <v>963394702</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>2993</v>
-      </c>
-      <c r="J2" t="s">
         <v>26</v>
       </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2">
+        <v>3197</v>
+      </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>931969766</v>
+        <v>964027339</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3">
-        <v>2604</v>
-      </c>
-      <c r="J3" t="s">
         <v>26</v>
       </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3">
+        <v>2807</v>
+      </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>931969765</v>
+        <v>964069741</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4">
-        <v>2604</v>
-      </c>
-      <c r="J4" t="s">
         <v>26</v>
       </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>3788</v>
+      </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>931976193</v>
+        <v>964069743</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>2614</v>
-      </c>
-      <c r="J5" t="s">
         <v>26</v>
       </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1134</v>
+      </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>934219892</v>
+        <v>964069744</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>2608</v>
-      </c>
-      <c r="J6" t="s">
         <v>26</v>
       </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>5304</v>
+      </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>934477959</v>
+        <v>964069745</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>948</v>
-      </c>
-      <c r="J7" t="s">
         <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>997</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>934477961</v>
+        <v>964069748</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>948</v>
-      </c>
-      <c r="J8" t="s">
         <v>26</v>
       </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>997</v>
+      </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>934477962</v>
+        <v>964069750</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>948</v>
-      </c>
-      <c r="J9" t="s">
         <v>26</v>
       </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>1134</v>
+      </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>934477201</v>
+        <v>964151733</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10">
-        <v>1601</v>
-      </c>
-      <c r="J10" t="s">
         <v>26</v>
       </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10">
+        <v>985</v>
+      </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>936502558</v>
+        <v>964151734</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>3234</v>
-      </c>
-      <c r="J11" t="s">
         <v>26</v>
       </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11">
+        <v>4335</v>
+      </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N11" t="s">
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>937030900</v>
+        <v>964151735</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12">
-        <v>1468</v>
-      </c>
-      <c r="J12" t="s">
         <v>26</v>
       </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>3223</v>
+      </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s">
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>937256319</v>
+        <v>964151736</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13">
-        <v>2156</v>
-      </c>
-      <c r="J13" t="s">
         <v>26</v>
       </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13">
+        <v>985</v>
+      </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
         <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>937327713</v>
+        <v>964247900</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14">
-        <v>2234</v>
-      </c>
-      <c r="J14" t="s">
         <v>26</v>
       </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14">
+        <v>2882</v>
+      </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
         <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>964263698</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>7427.52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>964411681</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>991</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>964411684</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>991</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>964411685</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>991</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>964411686</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>92</v>
       </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>3135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>964411687</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>991</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>964495844</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>855</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>964678442</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <v>1898</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:S14">
-    <sortCondition descending="1" ref="S1"/>
+  <sortState ref="A2:T23">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>961479615</v>
+      </c>
+      <c r="B2">
+        <v>13467527325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>1392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="96">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,37 +76,31 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-54790370</t>
-  </si>
-  <si>
-    <t>13716935806</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>17:06:20 10.08.2023</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>225 Молочный</t>
+    <t>15:42:02 14.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>белый</t>
+    <t>голубой</t>
   </si>
   <si>
     <t>₽</t>
   </si>
   <si>
-    <t>133388629</t>
-  </si>
-  <si>
-    <t>00-00195497</t>
+    <t>154170373</t>
+  </si>
+  <si>
+    <t>00-00201723</t>
   </si>
   <si>
     <t>Склад</t>
@@ -115,79 +109,199 @@
     <t>Новое</t>
   </si>
   <si>
-    <t>13 ч 04 мин</t>
-  </si>
-  <si>
-    <t>13717152117</t>
-  </si>
-  <si>
-    <t>18:25:08 10.08.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 50 х 70</t>
-  </si>
-  <si>
-    <t>138871467</t>
-  </si>
-  <si>
-    <t>00-00195482</t>
-  </si>
-  <si>
-    <t>11 ч 45 мин</t>
-  </si>
-  <si>
-    <t>13717152116</t>
-  </si>
-  <si>
-    <t>13717397837</t>
-  </si>
-  <si>
-    <t>19:43:02 10.08.2023</t>
+    <t>16 ч 57 мин</t>
+  </si>
+  <si>
+    <t>17:52:42 14.08.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200x200</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>138888761</t>
+  </si>
+  <si>
+    <t>00-00190791</t>
+  </si>
+  <si>
+    <t>14 ч 46 мин</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>138889378</t>
+  </si>
+  <si>
+    <t>00-00185879</t>
+  </si>
+  <si>
+    <t>19:26:24 14.08.2023</t>
+  </si>
+  <si>
+    <t>4217 Бежевый</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>129494675</t>
+  </si>
+  <si>
+    <t>00-00191055</t>
+  </si>
+  <si>
+    <t>13 ч 13 мин</t>
+  </si>
+  <si>
+    <t>19:40:23 14.08.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина 1,5 спальное 120х200х30</t>
+  </si>
+  <si>
+    <t>148721787</t>
+  </si>
+  <si>
+    <t>00-00186956</t>
+  </si>
+  <si>
+    <t>12 ч 59 мин</t>
+  </si>
+  <si>
+    <t>20:20:19 14.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 60 х 60</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>138871656</t>
+  </si>
+  <si>
+    <t>00-00193246</t>
+  </si>
+  <si>
+    <t>12 ч 19 мин</t>
+  </si>
+  <si>
+    <t>21:21:19 14.08.2023</t>
   </si>
   <si>
     <t>Наволочка из страйп-сатина 50 х 70</t>
   </si>
   <si>
+    <t>138871098</t>
+  </si>
+  <si>
+    <t>00-00190786</t>
+  </si>
+  <si>
+    <t>11 ч 18 мин</t>
+  </si>
+  <si>
+    <t>22:22:53 14.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300x300</t>
+  </si>
+  <si>
+    <t>136535179</t>
+  </si>
+  <si>
+    <t>00-00193907</t>
+  </si>
+  <si>
+    <t>10 ч 16 мин</t>
+  </si>
+  <si>
+    <t>23:27:14 14.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40</t>
+  </si>
+  <si>
+    <t>148720131</t>
+  </si>
+  <si>
+    <t>00-00200984</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 ч 12 мин</t>
+  </si>
+  <si>
+    <t>00:25:32 15.08.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина 2 спальное 140х200х30</t>
+  </si>
+  <si>
     <t>темно-серый</t>
   </si>
   <si>
-    <t>138871416</t>
-  </si>
-  <si>
-    <t>00-00123649</t>
-  </si>
-  <si>
-    <t>10 ч 27 мин</t>
-  </si>
-  <si>
-    <t>13717397839</t>
-  </si>
-  <si>
-    <t>13717397838</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150x200</t>
-  </si>
-  <si>
-    <t>серый</t>
-  </si>
-  <si>
-    <t>138889212</t>
-  </si>
-  <si>
-    <t>00-00185891</t>
-  </si>
-  <si>
-    <t>13717397836</t>
-  </si>
-  <si>
-    <t>Простыня из варёного хлопка 180x220</t>
-  </si>
-  <si>
-    <t>136503593</t>
-  </si>
-  <si>
-    <t>00-00195518</t>
+    <t>149929895</t>
+  </si>
+  <si>
+    <t>00-00201399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 ч 14 мин</t>
+  </si>
+  <si>
+    <t>08:20:16 15.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>138871687</t>
+  </si>
+  <si>
+    <t>00-00193715</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ч 19 мин</t>
+  </si>
+  <si>
+    <t>08:20:44 15.08.2023</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 110x190</t>
+  </si>
+  <si>
+    <t>светло-серый</t>
+  </si>
+  <si>
+    <t>135932345</t>
+  </si>
+  <si>
+    <t>00-00150333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ч 18 мин</t>
+  </si>
+  <si>
+    <t>08:21:58 15.08.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200x220</t>
+  </si>
+  <si>
+    <t>138889659</t>
+  </si>
+  <si>
+    <t>00-00193720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ч 17 мин</t>
   </si>
 </sst>
 </file>
@@ -534,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,7 +734,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>981700590</v>
+        <v>989683353</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -629,431 +743,1051 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2">
+        <v>997</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="J2">
-        <v>6171</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>981864062</v>
+        <v>989972672</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>3387</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>964</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
         <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>981864063</v>
+        <v>989972674</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>3387</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>964</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
       <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
         <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>982016009</v>
+        <v>990176657</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>9079</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5">
-        <v>2273</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>982016010</v>
+        <v>990206981</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>5435</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <v>871</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>982016011</v>
+        <v>990291271</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7">
+        <v>1129</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7">
-        <v>2673</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>982016012</v>
+        <v>990427867</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>934</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>990561093</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>4841</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>990673148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J10">
+        <v>936</v>
+      </c>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>871</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>990673149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>936</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>990673150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="R8" t="s">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>936</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>990673151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="S8" t="s">
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>936</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>990740460</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="T8" t="s">
-        <v>47</v>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>5824</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>991054690</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>1129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>991054691</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16">
+        <v>1129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>991055443</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17">
+        <v>2658</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>991057448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18">
+        <v>3894</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T8">
+  <sortState ref="A2:T18">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,31 +76,37 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
+    <t>WB-GI-55999740</t>
+  </si>
+  <si>
+    <t>14049751952</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>05:10:09 25.08.2023</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>08:53:15 16.08.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из бязи 40 х 40</t>
+    <t>Наволочка из тенселя 70 х 70</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>серый</t>
+    <t>голубой</t>
   </si>
   <si>
     <t>₽</t>
   </si>
   <si>
-    <t>149930500</t>
-  </si>
-  <si>
-    <t>00-00201608</t>
+    <t>138871973</t>
+  </si>
+  <si>
+    <t>00-00189136</t>
   </si>
   <si>
     <t>Склад</t>
@@ -109,76 +115,82 @@
     <t>Новое</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6 ч 54 мин</t>
-  </si>
-  <si>
-    <t>10:09:51 16.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 220x240</t>
-  </si>
-  <si>
-    <t>красный</t>
-  </si>
-  <si>
-    <t>135487119</t>
-  </si>
-  <si>
-    <t>00-00147077</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 ч 37 мин</t>
-  </si>
-  <si>
-    <t>12:14:56 16.08.2023</t>
-  </si>
-  <si>
-    <t>Матрас ватный тик с бортом 40x80</t>
-  </si>
-  <si>
-    <t>светло-серый</t>
-  </si>
-  <si>
-    <t>138727579</t>
-  </si>
-  <si>
-    <t>00-00176083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 ч 32 мин</t>
-  </si>
-  <si>
-    <t>14:24:57 16.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 200x220x30</t>
-  </si>
-  <si>
-    <t>сиреневый</t>
-  </si>
-  <si>
-    <t>136503919</t>
-  </si>
-  <si>
-    <t>00-00183194</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 ч 22 мин</t>
-  </si>
-  <si>
-    <t>15:02:52 16.08.2023</t>
-  </si>
-  <si>
-    <t>Гобеленовая наволочка 40х40</t>
-  </si>
-  <si>
-    <t>138871390</t>
-  </si>
-  <si>
-    <t>00-00186335</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 ч 44 мин</t>
+    <t xml:space="preserve"> 0 ч 53 мин</t>
+  </si>
+  <si>
+    <t>14049751951</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145x215</t>
+  </si>
+  <si>
+    <t>138889724</t>
+  </si>
+  <si>
+    <t>00-00193982</t>
+  </si>
+  <si>
+    <t>14048396740</t>
+  </si>
+  <si>
+    <t>18:45:22 24.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200x200x40</t>
+  </si>
+  <si>
+    <t>фиолетовый</t>
+  </si>
+  <si>
+    <t>157399918</t>
+  </si>
+  <si>
+    <t>00-00203348</t>
+  </si>
+  <si>
+    <t>11 ч 18 мин</t>
+  </si>
+  <si>
+    <t>14048182859</t>
+  </si>
+  <si>
+    <t>17:55:21 24.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240x260</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>136503428</t>
+  </si>
+  <si>
+    <t>00-00099574</t>
+  </si>
+  <si>
+    <t>12 ч 08 мин</t>
+  </si>
+  <si>
+    <t>14046984139</t>
+  </si>
+  <si>
+    <t>13:43:38 24.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200x200x30</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>141301846</t>
+  </si>
+  <si>
+    <t>00-00198539</t>
+  </si>
+  <si>
+    <t>16 ч 20 мин</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,255 +623,255 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>993443300</v>
+        <v>1011582297</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J2">
-        <v>715</v>
+        <v>3776</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>993597709</v>
+        <v>1012073637</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>2470</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3">
-        <v>2750</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>993884553</v>
+        <v>1012173058</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>1230</v>
+        <v>3995</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>994180847</v>
+        <v>1012644342</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J5">
-        <v>2967</v>
+        <v>3085</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>994264888</v>
+        <v>1012644343</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -868,121 +880,59 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>760</v>
+        <v>1157</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>994264894</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>760</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T7">
+  <sortState ref="A2:T6">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,121 +76,292 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-55999740</t>
-  </si>
-  <si>
-    <t>14049751952</t>
+    <t>WB-GI-56748406</t>
+  </si>
+  <si>
+    <t>14221341420</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>05:10:09 25.08.2023</t>
+    <t>06:24:45 31.08.2023</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>Матрас ватный тик с бортом 110x190</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>светло-серый</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>135932345</t>
+  </si>
+  <si>
+    <t>00-00150333</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>23 ч 54 мин</t>
+  </si>
+  <si>
+    <t>14224928293</t>
+  </si>
+  <si>
+    <t>04:42:35 01.09.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ч 36 мин</t>
+  </si>
+  <si>
+    <t>14221428159</t>
+  </si>
+  <si>
+    <t>06:52:56 31.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>148720131</t>
+  </si>
+  <si>
+    <t>00-00200984</t>
+  </si>
+  <si>
+    <t>23 ч 26 мин</t>
+  </si>
+  <si>
+    <t>14222850774</t>
+  </si>
+  <si>
+    <t>13:19:05 31.08.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>138871997</t>
+  </si>
+  <si>
+    <t>00-00179595</t>
+  </si>
+  <si>
+    <t>17 ч 00 мин</t>
+  </si>
+  <si>
+    <t>14222835939</t>
+  </si>
+  <si>
+    <t>13:14:02 31.08.2023</t>
+  </si>
+  <si>
     <t>Наволочка из тенселя 70 х 70</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>138871973</t>
-  </si>
-  <si>
-    <t>00-00189136</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 ч 53 мин</t>
-  </si>
-  <si>
-    <t>14049751951</t>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>138871158</t>
+  </si>
+  <si>
+    <t>00-00193601</t>
+  </si>
+  <si>
+    <t>17 ч 05 мин</t>
+  </si>
+  <si>
+    <t>14222034277</t>
+  </si>
+  <si>
+    <t>09:20:54 31.08.2023</t>
+  </si>
+  <si>
+    <t>138871828</t>
+  </si>
+  <si>
+    <t>00-00194527</t>
+  </si>
+  <si>
+    <t>20 ч 58 мин</t>
+  </si>
+  <si>
+    <t>14222850775</t>
   </si>
   <si>
     <t>Пододеяльник из тенселя 145x215</t>
   </si>
   <si>
-    <t>138889724</t>
-  </si>
-  <si>
-    <t>00-00193982</t>
-  </si>
-  <si>
-    <t>14048396740</t>
-  </si>
-  <si>
-    <t>18:45:22 24.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из сатина на резинке 200x200x40</t>
-  </si>
-  <si>
-    <t>фиолетовый</t>
-  </si>
-  <si>
-    <t>157399918</t>
-  </si>
-  <si>
-    <t>00-00203348</t>
-  </si>
-  <si>
-    <t>11 ч 18 мин</t>
-  </si>
-  <si>
-    <t>14048182859</t>
-  </si>
-  <si>
-    <t>17:55:21 24.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 240x260</t>
-  </si>
-  <si>
-    <t>желтый</t>
-  </si>
-  <si>
-    <t>136503428</t>
-  </si>
-  <si>
-    <t>00-00099574</t>
-  </si>
-  <si>
-    <t>12 ч 08 мин</t>
-  </si>
-  <si>
-    <t>14046984139</t>
-  </si>
-  <si>
-    <t>13:43:38 24.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня круглая из страйп сатина на резинке 200x200x30</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>141301846</t>
-  </si>
-  <si>
-    <t>00-00198539</t>
-  </si>
-  <si>
-    <t>16 ч 20 мин</t>
+    <t>138889528</t>
+  </si>
+  <si>
+    <t>00-00179121</t>
+  </si>
+  <si>
+    <t>14222850777</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150x200</t>
+  </si>
+  <si>
+    <t>138889254</t>
+  </si>
+  <si>
+    <t>00-00192993</t>
+  </si>
+  <si>
+    <t>14222850779</t>
+  </si>
+  <si>
+    <t>138889662</t>
+  </si>
+  <si>
+    <t>00-00191582</t>
+  </si>
+  <si>
+    <t>14222815014</t>
+  </si>
+  <si>
+    <t>13:06:45 31.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 200х200х30</t>
+  </si>
+  <si>
+    <t>темно-синий</t>
+  </si>
+  <si>
+    <t>136504773</t>
+  </si>
+  <si>
+    <t>00-00195725</t>
+  </si>
+  <si>
+    <t>17 ч 12 мин</t>
+  </si>
+  <si>
+    <t>14222850781</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х30</t>
+  </si>
+  <si>
+    <t>136502883</t>
+  </si>
+  <si>
+    <t>00-00193619</t>
+  </si>
+  <si>
+    <t>14222850782</t>
+  </si>
+  <si>
+    <t>136529898</t>
+  </si>
+  <si>
+    <t>00-00180979</t>
+  </si>
+  <si>
+    <t>14222850776</t>
+  </si>
+  <si>
+    <t>136535256</t>
+  </si>
+  <si>
+    <t>00-00193032</t>
+  </si>
+  <si>
+    <t>14222777421</t>
+  </si>
+  <si>
+    <t>12:52:23 31.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х20</t>
+  </si>
+  <si>
+    <t>светло-розовый</t>
+  </si>
+  <si>
+    <t>154175995</t>
+  </si>
+  <si>
+    <t>00-00196640</t>
+  </si>
+  <si>
+    <t>17 ч 26 мин</t>
+  </si>
+  <si>
+    <t>14222299711</t>
+  </si>
+  <si>
+    <t>10:28:04 31.08.2023</t>
+  </si>
+  <si>
+    <t>154176185</t>
+  </si>
+  <si>
+    <t>00-00194290</t>
+  </si>
+  <si>
+    <t>19 ч 51 мин</t>
+  </si>
+  <si>
+    <t>14222884319</t>
+  </si>
+  <si>
+    <t>13:26:20 31.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 80x180</t>
+  </si>
+  <si>
+    <t>136503246</t>
+  </si>
+  <si>
+    <t>00-00197022</t>
+  </si>
+  <si>
+    <t>16 ч 52 мин</t>
+  </si>
+  <si>
+    <t>14221635280</t>
+  </si>
+  <si>
+    <t>07:53:26 31.08.2023</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 90x160</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>135532725</t>
+  </si>
+  <si>
+    <t>00-00197027</t>
+  </si>
+  <si>
+    <t>22 ч 25 мин</t>
   </si>
 </sst>
 </file>
@@ -537,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,43 +794,43 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1011582297</v>
+        <v>1024453706</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>3776</v>
+        <v>2593</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -671,57 +842,57 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1012073637</v>
+        <v>1024504584</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>2470</v>
+        <v>900</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
@@ -733,57 +904,57 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1012173058</v>
+        <v>1024623714</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="J4">
-        <v>3995</v>
+        <v>1269</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
@@ -795,57 +966,57 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1012644342</v>
+        <v>1024801470</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>3085</v>
+        <v>1087</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -857,57 +1028,57 @@
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
         <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1012644343</v>
+        <v>1024952307</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J6">
-        <v>1157</v>
+        <v>3863</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -919,20 +1090,764 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1025247441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>3673</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1025275393</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>3692</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1025289973</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>1087</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1025299967</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>960</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1025299968</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>2678</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1025299969</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>2819</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1025299970</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <v>2897</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1025299972</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14">
+        <v>2897</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1025299974</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15">
+        <v>2603</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1025299975</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>2819</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1025314619</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>1042</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1026344192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>2593</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T6">
+  <sortState ref="A2:T18">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,37 +76,37 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-56748406</t>
-  </si>
-  <si>
-    <t>14221341420</t>
+    <t>WB-GI-56999725</t>
+  </si>
+  <si>
+    <t>14280147143</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>06:24:45 31.08.2023</t>
+    <t>19:54:08 03.09.2023</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Матрас ватный тик с бортом 110x190</t>
+    <t>Наволочка из варёного хлопка 70 х 70</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>светло-серый</t>
+    <t>зеленый</t>
   </si>
   <si>
     <t>₽</t>
   </si>
   <si>
-    <t>135932345</t>
-  </si>
-  <si>
-    <t>00-00150333</t>
+    <t>138871856</t>
+  </si>
+  <si>
+    <t>00-00189250</t>
   </si>
   <si>
     <t>Склад</t>
@@ -115,253 +115,199 @@
     <t>Новое</t>
   </si>
   <si>
-    <t>23 ч 54 мин</t>
-  </si>
-  <si>
-    <t>14224928293</t>
-  </si>
-  <si>
-    <t>04:42:35 01.09.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 ч 36 мин</t>
-  </si>
-  <si>
-    <t>14221428159</t>
-  </si>
-  <si>
-    <t>06:52:56 31.08.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 40 х 40</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>148720131</t>
-  </si>
-  <si>
-    <t>00-00200984</t>
-  </si>
-  <si>
-    <t>23 ч 26 мин</t>
-  </si>
-  <si>
-    <t>14222850774</t>
-  </si>
-  <si>
-    <t>13:19:05 31.08.2023</t>
+    <t>10 ч 09 мин</t>
+  </si>
+  <si>
+    <t>14274777707</t>
+  </si>
+  <si>
+    <t>09:00:03 02.09.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>138871243</t>
+  </si>
+  <si>
+    <t>00-00190785</t>
+  </si>
+  <si>
+    <t>45 ч 03 мин</t>
+  </si>
+  <si>
+    <t>14274708000</t>
+  </si>
+  <si>
+    <t>08:39:44 02.09.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>138871150</t>
+  </si>
+  <si>
+    <t>00-00126529</t>
+  </si>
+  <si>
+    <t>45 ч 24 мин</t>
+  </si>
+  <si>
+    <t>14274781780</t>
+  </si>
+  <si>
+    <t>09:01:26 02.09.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70</t>
+  </si>
+  <si>
+    <t>138871542</t>
+  </si>
+  <si>
+    <t>00-00126093</t>
+  </si>
+  <si>
+    <t>45 ч 02 мин</t>
+  </si>
+  <si>
+    <t>14279513244</t>
+  </si>
+  <si>
+    <t>15:40:23 03.09.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 50</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>138872010</t>
+  </si>
+  <si>
+    <t>00-00192820</t>
+  </si>
+  <si>
+    <t>14 ч 23 мин</t>
+  </si>
+  <si>
+    <t>14277764270</t>
+  </si>
+  <si>
+    <t>07:04:52 03.09.2023</t>
   </si>
   <si>
     <t>Наволочка из тенселя 50 х 70</t>
   </si>
   <si>
+    <t>138871633</t>
+  </si>
+  <si>
+    <t>00-00180234</t>
+  </si>
+  <si>
+    <t>22 ч 58 мин</t>
+  </si>
+  <si>
+    <t>14279133292</t>
+  </si>
+  <si>
+    <t>14:27:35 03.09.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150x200</t>
+  </si>
+  <si>
     <t>розовый</t>
   </si>
   <si>
-    <t>138871997</t>
-  </si>
-  <si>
-    <t>00-00179595</t>
-  </si>
-  <si>
-    <t>17 ч 00 мин</t>
-  </si>
-  <si>
-    <t>14222835939</t>
-  </si>
-  <si>
-    <t>13:14:02 31.08.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 70 х 70</t>
-  </si>
-  <si>
-    <t>коричневый</t>
-  </si>
-  <si>
-    <t>138871158</t>
-  </si>
-  <si>
-    <t>00-00193601</t>
-  </si>
-  <si>
-    <t>17 ч 05 мин</t>
-  </si>
-  <si>
-    <t>14222034277</t>
-  </si>
-  <si>
-    <t>09:20:54 31.08.2023</t>
-  </si>
-  <si>
-    <t>138871828</t>
-  </si>
-  <si>
-    <t>00-00194527</t>
-  </si>
-  <si>
-    <t>20 ч 58 мин</t>
-  </si>
-  <si>
-    <t>14222850775</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 145x215</t>
-  </si>
-  <si>
-    <t>138889528</t>
-  </si>
-  <si>
-    <t>00-00179121</t>
-  </si>
-  <si>
-    <t>14222850777</t>
+    <t>138889585</t>
+  </si>
+  <si>
+    <t>00-00185964</t>
+  </si>
+  <si>
+    <t>15 ч 36 мин</t>
+  </si>
+  <si>
+    <t>14280145594</t>
+  </si>
+  <si>
+    <t>19:53:13 03.09.2023</t>
   </si>
   <si>
     <t>Пододеяльник из тенселя 150x200</t>
   </si>
   <si>
-    <t>138889254</t>
-  </si>
-  <si>
-    <t>00-00192993</t>
-  </si>
-  <si>
-    <t>14222850779</t>
-  </si>
-  <si>
-    <t>138889662</t>
-  </si>
-  <si>
-    <t>00-00191582</t>
-  </si>
-  <si>
-    <t>14222815014</t>
-  </si>
-  <si>
-    <t>13:06:45 31.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из варёного хлопка на резинке 200х200х30</t>
-  </si>
-  <si>
-    <t>темно-синий</t>
-  </si>
-  <si>
-    <t>136504773</t>
-  </si>
-  <si>
-    <t>00-00195725</t>
-  </si>
-  <si>
-    <t>17 ч 12 мин</t>
-  </si>
-  <si>
-    <t>14222850781</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 120х200х30</t>
-  </si>
-  <si>
-    <t>136502883</t>
-  </si>
-  <si>
-    <t>00-00193619</t>
-  </si>
-  <si>
-    <t>14222850782</t>
-  </si>
-  <si>
-    <t>136529898</t>
-  </si>
-  <si>
-    <t>00-00180979</t>
-  </si>
-  <si>
-    <t>14222850776</t>
-  </si>
-  <si>
-    <t>136535256</t>
-  </si>
-  <si>
-    <t>00-00193032</t>
-  </si>
-  <si>
-    <t>14222777421</t>
-  </si>
-  <si>
-    <t>12:52:23 31.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 180х200х20</t>
-  </si>
-  <si>
-    <t>светло-розовый</t>
-  </si>
-  <si>
-    <t>154175995</t>
-  </si>
-  <si>
-    <t>00-00196640</t>
-  </si>
-  <si>
-    <t>17 ч 26 мин</t>
-  </si>
-  <si>
-    <t>14222299711</t>
-  </si>
-  <si>
-    <t>10:28:04 31.08.2023</t>
-  </si>
-  <si>
-    <t>154176185</t>
-  </si>
-  <si>
-    <t>00-00194290</t>
-  </si>
-  <si>
-    <t>19 ч 51 мин</t>
-  </si>
-  <si>
-    <t>14222884319</t>
-  </si>
-  <si>
-    <t>13:26:20 31.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня непромокаемая 80x180</t>
-  </si>
-  <si>
-    <t>136503246</t>
-  </si>
-  <si>
-    <t>00-00197022</t>
-  </si>
-  <si>
-    <t>16 ч 52 мин</t>
-  </si>
-  <si>
-    <t>14221635280</t>
-  </si>
-  <si>
-    <t>07:53:26 31.08.2023</t>
-  </si>
-  <si>
-    <t>Простыня непромокаемая 90x160</t>
-  </si>
-  <si>
-    <t>белый</t>
-  </si>
-  <si>
-    <t>135532725</t>
-  </si>
-  <si>
-    <t>00-00197027</t>
-  </si>
-  <si>
-    <t>22 ч 25 мин</t>
+    <t>138889350</t>
+  </si>
+  <si>
+    <t>00-00191592</t>
+  </si>
+  <si>
+    <t>10 ч 10 мин</t>
+  </si>
+  <si>
+    <t>14275631238</t>
+  </si>
+  <si>
+    <t>12:49:52 02.09.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина семейное 180х200х30</t>
+  </si>
+  <si>
+    <t>148722328</t>
+  </si>
+  <si>
+    <t>00-00198932</t>
+  </si>
+  <si>
+    <t>41 ч 13 мин</t>
+  </si>
+  <si>
+    <t>14275998122</t>
+  </si>
+  <si>
+    <t>14:34:12 02.09.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240x260</t>
+  </si>
+  <si>
+    <t>135487082</t>
+  </si>
+  <si>
+    <t>00-00182265</t>
+  </si>
+  <si>
+    <t>39 ч 29 мин</t>
+  </si>
+  <si>
+    <t>14275177017</t>
+  </si>
+  <si>
+    <t>10:59:48 02.09.2023</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300x300</t>
+  </si>
+  <si>
+    <t>136535181</t>
+  </si>
+  <si>
+    <t>00-00193474</t>
+  </si>
+  <si>
+    <t>43 ч 03 мин</t>
   </si>
 </sst>
 </file>
@@ -708,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,43 +740,43 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1024453706</v>
+        <v>1028724024</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J2">
-        <v>2593</v>
+        <v>822</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -851,48 +797,48 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1024504584</v>
+        <v>1028767030</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
@@ -913,48 +859,48 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1024623714</v>
+        <v>1028770125</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>1269</v>
+        <v>943</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
@@ -975,48 +921,48 @@
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1024801470</v>
+        <v>1029029691</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>1087</v>
+        <v>4599</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -1037,48 +983,48 @@
         <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1024952307</v>
+        <v>1029267193</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>3863</v>
+        <v>6873</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -1099,48 +1045,48 @@
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1025247441</v>
+        <v>1029473604</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="J7">
-        <v>3673</v>
+        <v>2667</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1161,48 +1107,48 @@
         <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1025275393</v>
+        <v>1030518571</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J8">
-        <v>3692</v>
+        <v>948</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1223,48 +1169,48 @@
         <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1025289973</v>
+        <v>1031446687</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J9">
-        <v>1087</v>
+        <v>2536</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1285,48 +1231,48 @@
         <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1025299967</v>
+        <v>1031592149</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J10">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1347,48 +1293,48 @@
         <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1025299968</v>
+        <v>1032096025</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J11">
-        <v>2678</v>
+        <v>2747</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1409,48 +1355,48 @@
         <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1025299969</v>
+        <v>1032097382</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J12">
-        <v>2819</v>
+        <v>1077</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1471,383 +1417,11 @@
         <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1025299970</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13">
-        <v>2897</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1025299972</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14">
-        <v>2897</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1025299974</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15">
-        <v>2603</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1025299975</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16">
-        <v>2819</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1025314619</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>1042</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1026344192</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18">
-        <v>2593</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T18">
+  <sortState ref="A2:T12">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,37 +76,34 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-56999725</t>
-  </si>
-  <si>
-    <t>14280147143</t>
+    <t>WB-GI-61012942</t>
+  </si>
+  <si>
+    <t>15021753370</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>19:54:08 03.09.2023</t>
+    <t>17:52:53 11.10.2023</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Наволочка из варёного хлопка 70 х 70</t>
+    <t>Матрас ватный с бортом 80x200</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>зеленый</t>
-  </si>
-  <si>
     <t>₽</t>
   </si>
   <si>
-    <t>138871856</t>
-  </si>
-  <si>
-    <t>00-00189250</t>
+    <t>135932319</t>
+  </si>
+  <si>
+    <t>00-00148991</t>
   </si>
   <si>
     <t>Склад</t>
@@ -115,199 +112,151 @@
     <t>Новое</t>
   </si>
   <si>
-    <t>10 ч 09 мин</t>
-  </si>
-  <si>
-    <t>14274777707</t>
-  </si>
-  <si>
-    <t>09:00:03 02.09.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 40 х 60</t>
-  </si>
-  <si>
-    <t>желтый</t>
-  </si>
-  <si>
-    <t>138871243</t>
-  </si>
-  <si>
-    <t>00-00190785</t>
-  </si>
-  <si>
-    <t>45 ч 03 мин</t>
-  </si>
-  <si>
-    <t>14274708000</t>
-  </si>
-  <si>
-    <t>08:39:44 02.09.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70</t>
-  </si>
-  <si>
-    <t>коричневый</t>
-  </si>
-  <si>
-    <t>138871150</t>
-  </si>
-  <si>
-    <t>00-00126529</t>
-  </si>
-  <si>
-    <t>45 ч 24 мин</t>
-  </si>
-  <si>
-    <t>14274781780</t>
-  </si>
-  <si>
-    <t>09:01:26 02.09.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 70 х 70</t>
-  </si>
-  <si>
-    <t>138871542</t>
-  </si>
-  <si>
-    <t>00-00126093</t>
-  </si>
-  <si>
-    <t>45 ч 02 мин</t>
-  </si>
-  <si>
-    <t>14279513244</t>
-  </si>
-  <si>
-    <t>15:40:23 03.09.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 50</t>
+    <t>35 ч 37 мин</t>
+  </si>
+  <si>
+    <t>15050579243</t>
+  </si>
+  <si>
+    <t>19:40:30 12.10.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70</t>
+  </si>
+  <si>
+    <t>светло-бежевый</t>
+  </si>
+  <si>
+    <t>154170635</t>
+  </si>
+  <si>
+    <t>00-00202219</t>
+  </si>
+  <si>
+    <t>На сборке</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 ч 49 мин</t>
+  </si>
+  <si>
+    <t>15007440057</t>
+  </si>
+  <si>
+    <t>05:09:43 11.10.2023</t>
+  </si>
+  <si>
+    <t>Наволочка искуственный мех 40 х 40</t>
   </si>
   <si>
     <t>белый</t>
   </si>
   <si>
-    <t>138872010</t>
-  </si>
-  <si>
-    <t>00-00192820</t>
-  </si>
-  <si>
-    <t>14 ч 23 мин</t>
-  </si>
-  <si>
-    <t>14277764270</t>
-  </si>
-  <si>
-    <t>07:04:52 03.09.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70</t>
-  </si>
-  <si>
-    <t>138871633</t>
-  </si>
-  <si>
-    <t>00-00180234</t>
-  </si>
-  <si>
-    <t>22 ч 58 мин</t>
-  </si>
-  <si>
-    <t>14279133292</t>
-  </si>
-  <si>
-    <t>14:27:35 03.09.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150x200</t>
-  </si>
-  <si>
-    <t>розовый</t>
-  </si>
-  <si>
-    <t>138889585</t>
-  </si>
-  <si>
-    <t>00-00185964</t>
-  </si>
-  <si>
-    <t>15 ч 36 мин</t>
-  </si>
-  <si>
-    <t>14280145594</t>
-  </si>
-  <si>
-    <t>19:53:13 03.09.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 150x200</t>
-  </si>
-  <si>
-    <t>138889350</t>
-  </si>
-  <si>
-    <t>00-00191592</t>
-  </si>
-  <si>
-    <t>10 ч 10 мин</t>
-  </si>
-  <si>
-    <t>14275631238</t>
-  </si>
-  <si>
-    <t>12:49:52 02.09.2023</t>
-  </si>
-  <si>
-    <t>Постельное бельё из страйп-сатина семейное 180х200х30</t>
-  </si>
-  <si>
-    <t>148722328</t>
-  </si>
-  <si>
-    <t>00-00198932</t>
-  </si>
-  <si>
-    <t>41 ч 13 мин</t>
-  </si>
-  <si>
-    <t>14275998122</t>
-  </si>
-  <si>
-    <t>14:34:12 02.09.2023</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя 240x260</t>
-  </si>
-  <si>
-    <t>135487082</t>
-  </si>
-  <si>
-    <t>00-00182265</t>
-  </si>
-  <si>
-    <t>39 ч 29 мин</t>
-  </si>
-  <si>
-    <t>14275177017</t>
-  </si>
-  <si>
-    <t>10:59:48 02.09.2023</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя 300x300</t>
-  </si>
-  <si>
-    <t>136535181</t>
-  </si>
-  <si>
-    <t>00-00193474</t>
-  </si>
-  <si>
-    <t>43 ч 03 мин</t>
+    <t>157398476</t>
+  </si>
+  <si>
+    <t>00-00170514</t>
+  </si>
+  <si>
+    <t>48 ч 20 мин</t>
+  </si>
+  <si>
+    <t>15051278002</t>
+  </si>
+  <si>
+    <t>04:20:09 13.10.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150x200</t>
+  </si>
+  <si>
+    <t>138888831</t>
+  </si>
+  <si>
+    <t>00-00197804</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ч 09 мин</t>
+  </si>
+  <si>
+    <t>15041068612</t>
+  </si>
+  <si>
+    <t>19:24:31 11.10.2023</t>
+  </si>
+  <si>
+    <t>Постельное бельё из сатина Евро макси</t>
+  </si>
+  <si>
+    <t>светло-коричневый</t>
+  </si>
+  <si>
+    <t>148721691</t>
+  </si>
+  <si>
+    <t>00-00199006</t>
+  </si>
+  <si>
+    <t>34 ч 05 мин</t>
+  </si>
+  <si>
+    <t>15021410466</t>
+  </si>
+  <si>
+    <t>17:35:59 11.10.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 220x240</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>136503918</t>
+  </si>
+  <si>
+    <t>00-00131901</t>
+  </si>
+  <si>
+    <t>35 ч 54 мин</t>
+  </si>
+  <si>
+    <t>15047163214</t>
+  </si>
+  <si>
+    <t>06:15:05 12.10.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240x260</t>
+  </si>
+  <si>
+    <t>136504684</t>
+  </si>
+  <si>
+    <t>00-00184218</t>
+  </si>
+  <si>
+    <t>23 ч 14 мин</t>
+  </si>
+  <si>
+    <t>15008523343</t>
+  </si>
+  <si>
+    <t>09:20:12 11.10.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160x200x30</t>
+  </si>
+  <si>
+    <t>темно-серый</t>
+  </si>
+  <si>
+    <t>136505277</t>
+  </si>
+  <si>
+    <t>00-00183273</t>
+  </si>
+  <si>
+    <t>44 ч 09 мин</t>
   </si>
 </sst>
 </file>
@@ -654,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +689,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1028724024</v>
+        <v>1114642015</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -767,10 +716,10 @@
         <v>44</v>
       </c>
       <c r="J2">
-        <v>822</v>
+        <v>969</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
@@ -779,10 +728,10 @@
         <v>46</v>
       </c>
       <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -802,50 +751,50 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1028767030</v>
+        <v>1115194611</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J3">
-        <v>888</v>
+        <v>2469</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" t="s">
         <v>24</v>
       </c>
@@ -859,55 +808,55 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1028770125</v>
+        <v>1116295759</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>943</v>
+        <v>2128</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
@@ -921,30 +870,30 @@
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1029029691</v>
+        <v>1116336936</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -953,85 +902,85 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>4599</v>
+        <v>1626</v>
       </c>
       <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>95</v>
-      </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1029267193</v>
+        <v>1116545076</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J6">
-        <v>6873</v>
+        <v>6688</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" t="s">
         <v>24</v>
       </c>
@@ -1045,55 +994,55 @@
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1029473604</v>
+        <v>1117126282</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>2667</v>
+        <v>2381</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
       <c r="P7" t="s">
         <v>24</v>
       </c>
@@ -1107,54 +1056,54 @@
         <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1030518571</v>
+        <v>1118871634</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>1160.5</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
-        <v>948</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
@@ -1169,55 +1118,55 @@
         <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1031446687</v>
+        <v>1119216843</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>2536</v>
+        <v>2503</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
       <c r="P9" t="s">
         <v>24</v>
       </c>
@@ -1231,197 +1180,11 @@
         <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1031592149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10">
-        <v>935</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1032096025</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>2747</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1032097382</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12">
-        <v>1077</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T12">
+  <sortState ref="A2:T9">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>№ задания</t>
   </si>
@@ -76,34 +76,37 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-61012942</t>
-  </si>
-  <si>
-    <t>15021753370</t>
+    <t>WB-GI-61841505</t>
+  </si>
+  <si>
+    <t>15212887165</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>17:52:53 11.10.2023</t>
+    <t>12:58:49 19.10.2023</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Матрас ватный с бортом 80x200</t>
+    <t>Матрас ватный тик с бортом 110x190</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>светло-серый</t>
+  </si>
+  <si>
     <t>₽</t>
   </si>
   <si>
-    <t>135932319</t>
-  </si>
-  <si>
-    <t>00-00148991</t>
+    <t>135932345</t>
+  </si>
+  <si>
+    <t>00-00150333</t>
   </si>
   <si>
     <t>Склад</t>
@@ -112,151 +115,136 @@
     <t>Новое</t>
   </si>
   <si>
-    <t>35 ч 37 мин</t>
-  </si>
-  <si>
-    <t>15050579243</t>
-  </si>
-  <si>
-    <t>19:40:30 12.10.2023</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70</t>
-  </si>
-  <si>
-    <t>светло-бежевый</t>
-  </si>
-  <si>
-    <t>154170635</t>
-  </si>
-  <si>
-    <t>00-00202219</t>
-  </si>
-  <si>
-    <t>На сборке</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 ч 49 мин</t>
-  </si>
-  <si>
-    <t>15007440057</t>
-  </si>
-  <si>
-    <t>05:09:43 11.10.2023</t>
-  </si>
-  <si>
-    <t>Наволочка искуственный мех 40 х 40</t>
+    <t xml:space="preserve"> 0 ч 44 мин</t>
+  </si>
+  <si>
+    <t>15164778312</t>
+  </si>
+  <si>
+    <t>14:44:34 18.10.2023</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 40x80</t>
+  </si>
+  <si>
+    <t>138727579</t>
+  </si>
+  <si>
+    <t>00-00176083</t>
+  </si>
+  <si>
+    <t>22 ч 58 мин</t>
+  </si>
+  <si>
+    <t>15194297301</t>
+  </si>
+  <si>
+    <t>17:46:06 18.10.2023</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>138871180</t>
+  </si>
+  <si>
+    <t>00-00190709</t>
+  </si>
+  <si>
+    <t>19 ч 56 мин</t>
+  </si>
+  <si>
+    <t>15194297298</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145x215</t>
+  </si>
+  <si>
+    <t>157399282</t>
+  </si>
+  <si>
+    <t>00-00190711</t>
+  </si>
+  <si>
+    <t>15150187478</t>
+  </si>
+  <si>
+    <t>11:04:22 18.10.2023</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 200x200</t>
   </si>
   <si>
     <t>белый</t>
   </si>
   <si>
-    <t>157398476</t>
-  </si>
-  <si>
-    <t>00-00170514</t>
-  </si>
-  <si>
-    <t>48 ч 20 мин</t>
-  </si>
-  <si>
-    <t>15051278002</t>
-  </si>
-  <si>
-    <t>04:20:09 13.10.2023</t>
-  </si>
-  <si>
-    <t>Пододеяльник из бязи 150x200</t>
-  </si>
-  <si>
-    <t>138888831</t>
-  </si>
-  <si>
-    <t>00-00197804</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 ч 09 мин</t>
-  </si>
-  <si>
-    <t>15041068612</t>
-  </si>
-  <si>
-    <t>19:24:31 11.10.2023</t>
-  </si>
-  <si>
-    <t>Постельное бельё из сатина Евро макси</t>
-  </si>
-  <si>
-    <t>светло-коричневый</t>
-  </si>
-  <si>
-    <t>148721691</t>
-  </si>
-  <si>
-    <t>00-00199006</t>
-  </si>
-  <si>
-    <t>34 ч 05 мин</t>
-  </si>
-  <si>
-    <t>15021410466</t>
-  </si>
-  <si>
-    <t>17:35:59 11.10.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 220x240</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>136503918</t>
-  </si>
-  <si>
-    <t>00-00131901</t>
-  </si>
-  <si>
-    <t>35 ч 54 мин</t>
-  </si>
-  <si>
-    <t>15047163214</t>
-  </si>
-  <si>
-    <t>06:15:05 12.10.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 240x260</t>
-  </si>
-  <si>
-    <t>136504684</t>
-  </si>
-  <si>
-    <t>00-00184218</t>
-  </si>
-  <si>
-    <t>23 ч 14 мин</t>
-  </si>
-  <si>
-    <t>15008523343</t>
-  </si>
-  <si>
-    <t>09:20:12 11.10.2023</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 160x200x30</t>
-  </si>
-  <si>
-    <t>темно-серый</t>
-  </si>
-  <si>
-    <t>136505277</t>
-  </si>
-  <si>
-    <t>00-00183273</t>
-  </si>
-  <si>
-    <t>44 ч 09 мин</t>
+    <t>138888874</t>
+  </si>
+  <si>
+    <t>00-00184656</t>
+  </si>
+  <si>
+    <t>26 ч 38 мин</t>
+  </si>
+  <si>
+    <t>15207383460</t>
+  </si>
+  <si>
+    <t>00:16:36 19.10.2023</t>
+  </si>
+  <si>
+    <t>13 ч 26 мин</t>
+  </si>
+  <si>
+    <t>15194297299</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 140x200x30</t>
+  </si>
+  <si>
+    <t>135486936</t>
+  </si>
+  <si>
+    <t>00-00180226</t>
+  </si>
+  <si>
+    <t>15207385860</t>
+  </si>
+  <si>
+    <t>00:24:18 19.10.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 160x220</t>
+  </si>
+  <si>
+    <t>135486901</t>
+  </si>
+  <si>
+    <t>00-00126590</t>
+  </si>
+  <si>
+    <t>13 ч 18 мин</t>
+  </si>
+  <si>
+    <t>15208903766</t>
+  </si>
+  <si>
+    <t>06:52:28 19.10.2023</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300x300</t>
+  </si>
+  <si>
+    <t>136503228</t>
+  </si>
+  <si>
+    <t>00-00189049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 ч 50 мин</t>
   </si>
 </sst>
 </file>
@@ -603,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,49 +677,49 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1114642015</v>
+        <v>1131403735</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J2">
-        <v>969</v>
+        <v>1197</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -746,54 +734,54 @@
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1115194611</v>
+        <v>1131904657</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>2469</v>
+        <v>1141</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -808,12 +796,12 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1116295759</v>
+        <v>1132324224</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -825,37 +813,37 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>2981</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="J4">
-        <v>2128</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -870,54 +858,54 @@
         <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1116336936</v>
+        <v>1132324225</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>1626</v>
+        <v>3203</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -932,54 +920,54 @@
         <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1116545076</v>
+        <v>1132324227</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>6688</v>
+        <v>929</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
@@ -994,54 +982,54 @@
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1117126282</v>
+        <v>1132791190</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J7">
-        <v>2381</v>
+        <v>1197</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
         <v>24</v>
@@ -1056,54 +1044,54 @@
         <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1118871634</v>
+        <v>1132793512</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J8">
-        <v>1160.5</v>
+        <v>1605</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
@@ -1118,73 +1106,135 @@
         <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1119216843</v>
+        <v>1133209192</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9">
-        <v>2503</v>
+        <v>3072</v>
       </c>
       <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1134034126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="J10">
+        <v>2496</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" t="s">
-        <v>53</v>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T9">
+  <sortState ref="A2:T10">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/wildberries/new.xlsx
+++ b/public/wildberries/new.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00CEE318-8CE2-4799-86D4-BEE680AB55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сборочные задания" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="141">
   <si>
     <t>№ задания</t>
   </si>
@@ -43,6 +44,9 @@
     <t>Цвет</t>
   </si>
   <si>
+    <t>Баркод</t>
+  </si>
+  <si>
     <t>Стоимость</t>
   </si>
   <si>
@@ -58,6 +62,9 @@
     <t>Склад продавца</t>
   </si>
   <si>
+    <t>Дата доставки клиенту</t>
+  </si>
+  <si>
     <t>Статус задания</t>
   </si>
   <si>
@@ -76,52 +83,367 @@
     <t>Время с момента заказа</t>
   </si>
   <si>
-    <t>WB-GI-70256637</t>
-  </si>
-  <si>
-    <t>16880285967</t>
+    <t>WB-GI-79638736</t>
+  </si>
+  <si>
+    <t>18714097797</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>15:43:48 27.12.2023</t>
+    <t>17:20:50 16.03.2024</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Простыня из тенселя на резинке 140х200х30</t>
+    <t>007 Оливковый с наволочками 50х70</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>133388659</t>
+  </si>
+  <si>
+    <t>00-00195283</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Новое</t>
+  </si>
+  <si>
+    <t>47 ч 07 мин</t>
+  </si>
+  <si>
+    <t>18768208999</t>
+  </si>
+  <si>
+    <t>21:23:44 17.03.2024</t>
+  </si>
+  <si>
+    <t>4384 Пыльная роза</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>102157908</t>
+  </si>
+  <si>
+    <t>00-00189336</t>
+  </si>
+  <si>
+    <t>19 ч 04 мин</t>
+  </si>
+  <si>
+    <t>18707782679</t>
+  </si>
+  <si>
+    <t>10:39:08 16.03.2024</t>
+  </si>
+  <si>
+    <t>Матрас ватный с бортом 110x190</t>
+  </si>
+  <si>
+    <t>135932328</t>
+  </si>
+  <si>
+    <t>00-00148983</t>
+  </si>
+  <si>
+    <t>53 ч 49 мин</t>
+  </si>
+  <si>
+    <t>18705151124</t>
+  </si>
+  <si>
+    <t>08:15:58 16.03.2024</t>
+  </si>
+  <si>
+    <t>Матрас ватный с бортом 110x200</t>
+  </si>
+  <si>
+    <t>138727694</t>
+  </si>
+  <si>
+    <t>00-00148994</t>
+  </si>
+  <si>
+    <t>56 ч 12 мин</t>
+  </si>
+  <si>
+    <t>18768235304</t>
+  </si>
+  <si>
+    <t>21:58:09 17.03.2024</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 110x200</t>
+  </si>
+  <si>
+    <t>светло-серый</t>
+  </si>
+  <si>
+    <t>135932396</t>
+  </si>
+  <si>
+    <t>00-00150335</t>
+  </si>
+  <si>
+    <t>18 ч 30 мин</t>
+  </si>
+  <si>
+    <t>18714308038</t>
+  </si>
+  <si>
+    <t>18:00:04 16.03.2024</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70</t>
+  </si>
+  <si>
     <t>белый</t>
   </si>
   <si>
-    <t>₽</t>
-  </si>
-  <si>
-    <t>136504948</t>
-  </si>
-  <si>
-    <t>00-00182267</t>
-  </si>
-  <si>
-    <t>Склад</t>
-  </si>
-  <si>
-    <t>Новое</t>
-  </si>
-  <si>
-    <t>14 ч 12 мин</t>
+    <t>138871996</t>
+  </si>
+  <si>
+    <t>00-00189181</t>
+  </si>
+  <si>
+    <t>46 ч 28 мин</t>
+  </si>
+  <si>
+    <t>18714308040</t>
+  </si>
+  <si>
+    <t>18679146631</t>
+  </si>
+  <si>
+    <t>05:56:47 15.03.2024</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>138871611</t>
+  </si>
+  <si>
+    <t>00-00193599</t>
+  </si>
+  <si>
+    <t>На сборке</t>
+  </si>
+  <si>
+    <t>82 ч 31 мин</t>
+  </si>
+  <si>
+    <t>18679146629</t>
+  </si>
+  <si>
+    <t>18707746942</t>
+  </si>
+  <si>
+    <t>10:25:50 16.03.2024</t>
+  </si>
+  <si>
+    <t>138871637</t>
+  </si>
+  <si>
+    <t>00-00182255</t>
+  </si>
+  <si>
+    <t>54 ч 02 мин</t>
+  </si>
+  <si>
+    <t>18707746941</t>
+  </si>
+  <si>
+    <t>18707746945</t>
+  </si>
+  <si>
+    <t>18698789608</t>
+  </si>
+  <si>
+    <t>20:56:12 15.03.2024</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>138872016</t>
+  </si>
+  <si>
+    <t>00-00179086</t>
+  </si>
+  <si>
+    <t>67 ч 32 мин</t>
+  </si>
+  <si>
+    <t>18761197302</t>
+  </si>
+  <si>
+    <t>08:46:42 17.03.2024</t>
+  </si>
+  <si>
+    <t>Наматрасник стеганый 90 х 200</t>
+  </si>
+  <si>
+    <t>138867969</t>
+  </si>
+  <si>
+    <t>00-00130481</t>
+  </si>
+  <si>
+    <t>31 ч 41 мин</t>
+  </si>
+  <si>
+    <t>18761197303</t>
+  </si>
+  <si>
+    <t>18766946839</t>
+  </si>
+  <si>
+    <t>15:23:50 17.03.2024</t>
+  </si>
+  <si>
+    <t>Плед меховой 2 спальный</t>
+  </si>
+  <si>
+    <t>141603706</t>
+  </si>
+  <si>
+    <t>00-00140143</t>
+  </si>
+  <si>
+    <t>25 ч 04 мин</t>
+  </si>
+  <si>
+    <t>18714308037</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240x260</t>
+  </si>
+  <si>
+    <t>138888798</t>
+  </si>
+  <si>
+    <t>00-00189822</t>
+  </si>
+  <si>
+    <t>18707746947</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145x215</t>
+  </si>
+  <si>
+    <t>138889173</t>
+  </si>
+  <si>
+    <t>00-00182257</t>
+  </si>
+  <si>
+    <t>18707746944</t>
+  </si>
+  <si>
+    <t>18748795177</t>
+  </si>
+  <si>
+    <t>04:01:22 17.03.2024</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х20</t>
+  </si>
+  <si>
+    <t>135533523</t>
+  </si>
+  <si>
+    <t>00-00195295</t>
+  </si>
+  <si>
+    <t>36 ч 27 мин</t>
+  </si>
+  <si>
+    <t>18714308036</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 160х200х30</t>
+  </si>
+  <si>
+    <t>136503219</t>
+  </si>
+  <si>
+    <t>00-00189195</t>
+  </si>
+  <si>
+    <t>18726066709</t>
+  </si>
+  <si>
+    <t>21:56:58 16.03.2024</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140x200x30</t>
+  </si>
+  <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>136504221</t>
+  </si>
+  <si>
+    <t>00-00142801</t>
+  </si>
+  <si>
+    <t>42 ч 31 мин</t>
+  </si>
+  <si>
+    <t>18707746943</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х30</t>
+  </si>
+  <si>
+    <t>154175661</t>
+  </si>
+  <si>
+    <t>00-00192811</t>
+  </si>
+  <si>
+    <t>18767966500</t>
+  </si>
+  <si>
+    <t>19:36:22 17.03.2024</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 90х200х30</t>
+  </si>
+  <si>
+    <t>136503929</t>
+  </si>
+  <si>
+    <t>00-00193271</t>
+  </si>
+  <si>
+    <t>20 ч 52 мин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,9 +522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,17 +774,12 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,19 +789,19 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="7" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,70 +862,1649 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1325092188</v>
+        <v>1521121932</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>1183.4000000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1521121934</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>1183.4000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1523179518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>1112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1523952566</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>2565</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1524292269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>1112</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1524292270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>1112</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1524292271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>5202</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1524292272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>3462</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1524292273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>1112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1524292275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>3462</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1524327955</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>2455</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1525309533</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="J2">
-        <v>3251</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H13" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>5905</v>
+      </c>
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N13" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1525400131</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>3565</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1525400132</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>1128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
         <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1525400133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <v>7036</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1525400135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17">
+        <v>1128</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1525775613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>2574</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1525958270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>3522</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1526525350</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>2396</v>
+      </c>
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1526525351</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>2396</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1527601791</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22">
+        <v>3591</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1528220517</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>3309</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1528374179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>5922</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1528400396</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>3257</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>